--- a/doc/转码内核维护记录.xlsx
+++ b/doc/转码内核维护记录.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiqian\Desktop\现有项目梳理及下一步计划\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>发现日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -48,6 +43,25 @@
   <si>
     <t>分析发现问题是合成后视频播放为2x播放，音频正常播放。编辑使用“魔影工厂”视频编辑软件对源片转码仍然出现此问题。使用ffmpeg进行demux时戳修复，仍然存在问题，使用转码，问题消失。发现源片是场编码，帧率写的是50fps，实际为场率。ffmpeg转码成25fps的帧编码则可以避免编辑软件对场解码的不兼容。</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>音频比视频少了6分钟，流畅压制成功，其他压制失败</t>
+  </si>
+  <si>
+    <t>音视频duration相差60s以上时，ABR或者2pass在所有档位都报错“A/V duration differs more than 60s.”，转码器退出，用户xml中设置&lt;errorignore&gt;2&lt;/errorignore&gt;可以忽略该错误。</t>
+  </si>
+  <si>
+    <t>压制后出现杂音</t>
+  </si>
+  <si>
+    <t>该问题是相关人员设置xml时未设置正确导致的，具体位置为&lt;audio stream="0" channel="mix" track="0" /&gt;，应该修改为&lt;audio stream="0" channel="both" track="0" /&gt;。</t>
+  </si>
+  <si>
+    <t>目前忽明忽暗现象测试时，只出现在画质为流畅，高清，超清，蓝光会有，原画是貌似OK的。</t>
+  </si>
+  <si>
+    <t>流畅、高清、超清、蓝光开启了画质增强，原画没有开启画质增强，而老的转码内核中画质增强问题存在一些问题。目前决定
+暂时关闭非动画视频的画质增强，动画视频的画质增强保留，上面出现的问题会在新内核开发过程中考虑。</t>
   </si>
 </sst>
 </file>
@@ -181,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,7 +230,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,7 +407,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -404,7 +418,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -412,7 +426,7 @@
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="128.375" customWidth="1"/>
+    <col min="4" max="4" width="162" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -443,23 +457,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+    <row r="3" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>20160510</v>
+      </c>
+      <c r="B3" s="1">
+        <v>20160510</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>20160524</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20160524</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>20160528</v>
+      </c>
+      <c r="B5" s="1">
+        <v>20160531</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
